--- a/metrics/metrics_raw_12_2023.xlsx
+++ b/metrics/metrics_raw_12_2023.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexfrisoneyape/Development/EM-projects/metrics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E17AA7-EA09-1F4D-A9F1-3E09DAF0D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +164,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,9 +285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,14 +461,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -525,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -563,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -589,7 +618,7 @@
         <v>16.93</v>
       </c>
       <c r="I4">
-        <v>9.970000000000001</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -601,7 +630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -639,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -677,7 +706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -715,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -753,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -776,7 +805,7 @@
         <v>12986</v>
       </c>
       <c r="H9">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I9">
         <v>19.91</v>
@@ -791,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -814,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I10">
         <v>3.97</v>
@@ -829,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -867,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -905,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -943,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -981,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1021,5 +1050,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K0000FF Datos elaborados por BCP para uso Interno</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>